--- a/src/test/java/excel/export/export5.xlsx
+++ b/src/test/java/excel/export/export5.xlsx
@@ -453,7 +453,7 @@
       <formula1>11</formula1>
       <formula2>11</formula2>
     </dataValidation>
-    <dataValidation type="date" operator="between" sqref="E3:E65536" allowBlank="true" errorStyle="stop" showErrorMessage="true" showInputMessage="true" promptTitle="提示" prompt="可输入的日期范围2000-01-01~3000-12-31">
+    <dataValidation type="date" operator="between" sqref="E3:E65536" allowBlank="true" errorStyle="stop" showErrorMessage="true" showInputMessage="true">
       <formula1>DATE(2000,1,1)</formula1>
       <formula2>DATE(3000,12,31)</formula2>
     </dataValidation>
